--- a/src/EMS.ExportCasReport/Template/Mau_Chi_Tiet_Buu_Gui_Doi_Soat.xlsx
+++ b/src/EMS.ExportCasReport/Template/Mau_Chi_Tiet_Buu_Gui_Doi_Soat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\EMS.ExportCasReport\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\NewBalance\src\EMS.ExportCasReport\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D081F705-4AA2-41F7-83E7-EB8E0A0C9615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DAB993-E13E-42B4-A418-29DC69AC085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>TỔNG CÔNG TY CHUYỂN PHÁT NHANH BƯU ĐIỆN - CTCP</t>
   </si>
@@ -49,12 +49,6 @@
     <t>{info.Tieu_De}</t>
   </si>
   <si>
-    <t>{info.Ten_Don_Vi}</t>
-  </si>
-  <si>
-    <t>{info.Ten_Tinh}</t>
-  </si>
-  <si>
     <t>{info.Thoi_Gian}</t>
   </si>
   <si>
@@ -133,6 +127,15 @@
   <si>
     <t>Ngày 
 chấp nhận</t>
+  </si>
+  <si>
+    <t>Trung tâm Đối Soát</t>
+  </si>
+  <si>
+    <t>Đơn vị: {infor.Ma_Tinh}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AE96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -643,7 +646,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="12"/>
@@ -675,7 +678,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="12"/>
@@ -763,7 +766,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -826,79 +829,84 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="S8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="8" t="s">
+      <c r="W8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>28</v>
+    </row>
+    <row r="96" spans="31:31" x14ac:dyDescent="0.3">
+      <c r="AE96" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
